--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>374262.2667990908</v>
+        <v>363162.543935955</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.28490194</v>
+        <v>4671565.284901943</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7219042.017806235</v>
+        <v>7152483.925566745</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>81.01353965097258</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>25.49602629667578</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>47.97616502622309</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>228.0996351671467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -896,25 +898,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>34.13055333365335</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>104.7223743992572</v>
       </c>
       <c r="G8" t="n">
-        <v>80.02531409275991</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1370,19 +1372,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>187.7303633741245</v>
+        <v>87.12299254042274</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>115.1055716303395</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1607,22 +1609,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>221.1111565124516</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>104.8987898026143</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>116.2259016354818</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1856,10 +1858,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>58.67748875058538</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>117.5628180826244</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2020,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>1.501394696608363</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2059,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>227.5614956766374</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2239,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>79.47996908723991</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>58.31517967031927</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -2728,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>109.0591506971457</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>161.8970328977319</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2807,7 +2809,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -2843,7 +2845,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
@@ -2959,16 +2961,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>50.81828836887217</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3190,16 +3192,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>98.15366458399308</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>172.7557593945127</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3427,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>123.9086344760393</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>218.7757544134941</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.99733418373785</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3958,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3977,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>81.01353965097235</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4150,10 +4152,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>115.1055716303395</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>110.0500814925477</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>920.4451377667813</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C2" t="n">
-        <v>493.5444077800814</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D2" t="n">
-        <v>70.25178696508164</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E2" t="n">
-        <v>44.49822504924752</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924752</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336854</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M2" t="n">
-        <v>1100.603903091852</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N2" t="n">
-        <v>1651.26943807629</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103421</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1745.630772103421</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1745.630772103421</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>1745.630772103421</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y2" t="n">
-        <v>1340.293502058311</v>
+        <v>2224.911252462377</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134925</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864297</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693792</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924752</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="L3" t="n">
-        <v>205.6899987133988</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="M3" t="n">
-        <v>756.3555336978368</v>
+        <v>974.3357998282165</v>
       </c>
       <c r="N3" t="n">
-        <v>756.3555336978368</v>
+        <v>1525.001334812655</v>
       </c>
       <c r="O3" t="n">
-        <v>756.3555336978368</v>
+        <v>1525.001334812655</v>
       </c>
       <c r="P3" t="n">
-        <v>1307.021068682275</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
         <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>2054.776204981511</v>
+        <v>2006.315432227751</v>
       </c>
       <c r="U4" t="n">
-        <v>1774.591756481815</v>
+        <v>1726.130983728055</v>
       </c>
       <c r="V4" t="n">
-        <v>1774.591756481815</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="W4" t="n">
-        <v>1774.591756481815</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.792697513689</v>
+        <v>816.0778436399225</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.891967526989</v>
+        <v>816.0778436399225</v>
       </c>
       <c r="D5" t="n">
-        <v>895.5993467119897</v>
+        <v>816.0778436399225</v>
       </c>
       <c r="E5" t="n">
-        <v>469.6224068598473</v>
+        <v>816.0778436399225</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4568,19 +4570,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
         <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1696.494830002562</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
         <v>2107.354917580474</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>2165.64106180522</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="Y5" t="n">
-        <v>2165.64106180522</v>
+        <v>1235.926207931453</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>1153.275937980036</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>1153.275937980036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>1153.275937980036</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O6" t="n">
-        <v>1703.941472964474</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462377</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1399.725618125737</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="C8" t="n">
-        <v>1399.725618125737</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="D8" t="n">
-        <v>976.4329973107372</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="E8" t="n">
-        <v>550.4560574585947</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="F8" t="n">
-        <v>125.3318756479949</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>2059.098288819458</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.098288819458</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>2059.098288819458</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>2224.911252462377</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y8" t="n">
-        <v>1819.573982417267</v>
+        <v>887.3827134031587</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4889,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>234.1248547200804</v>
+        <v>1408.671538471193</v>
       </c>
       <c r="C11" t="n">
-        <v>234.1248547200804</v>
+        <v>981.7708084844935</v>
       </c>
       <c r="D11" t="n">
-        <v>234.1248547200804</v>
+        <v>558.4781876694938</v>
       </c>
       <c r="E11" t="n">
-        <v>234.1248547200804</v>
+        <v>132.5012478173513</v>
       </c>
       <c r="F11" t="n">
-        <v>234.1248547200804</v>
+        <v>132.5012478173513</v>
       </c>
       <c r="G11" t="n">
         <v>44.49822504924753</v>
@@ -5042,19 +5044,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K11" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L11" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>1145.829295018124</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1674.245717477938</v>
       </c>
       <c r="N11" t="n">
         <v>1674.245717477938</v>
       </c>
       <c r="O11" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P11" t="n">
         <v>2224.911252462377</v>
@@ -5075,16 +5077,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V11" t="n">
-        <v>1867.421837588626</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W11" t="n">
-        <v>1471.030487888973</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X11" t="n">
-        <v>1059.31048905672</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="Y11" t="n">
-        <v>653.9732190116105</v>
+        <v>1828.519902762723</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5123,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L12" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M12" t="n">
-        <v>201.1892506764427</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N12" t="n">
-        <v>751.8547856608809</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P12" t="n">
         <v>1853.185855629757</v>
@@ -5200,37 +5202,37 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O13" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P13" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T13" t="n">
-        <v>2061.60438497749</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U13" t="n">
-        <v>2061.60438497749</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V13" t="n">
         <v>2061.60438497749</v>
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>897.3758948880899</v>
+        <v>1393.342889338594</v>
       </c>
       <c r="C14" t="n">
-        <v>470.47516490139</v>
+        <v>1393.342889338594</v>
       </c>
       <c r="D14" t="n">
-        <v>470.47516490139</v>
+        <v>970.050268523594</v>
       </c>
       <c r="E14" t="n">
-        <v>44.49822504924753</v>
+        <v>970.050268523594</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924753</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H14" t="n">
         <v>44.49822504924753</v>
@@ -5276,28 +5278,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K14" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L14" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M14" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N14" t="n">
-        <v>1006.023847611597</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O14" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P14" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R14" t="n">
         <v>2224.911252462377</v>
@@ -5309,19 +5311,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U14" t="n">
-        <v>2118.952878924382</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V14" t="n">
-        <v>2118.952878924382</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W14" t="n">
-        <v>1722.561529224729</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X14" t="n">
-        <v>1722.561529224729</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y14" t="n">
-        <v>1317.22425917962</v>
+        <v>1813.191253630124</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5366,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="M15" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N15" t="n">
-        <v>287.7093087981016</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O15" t="n">
-        <v>838.3748437825398</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P15" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q15" t="n">
         <v>1853.185855629757</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1745.792697513689</v>
+        <v>1715.206688290407</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.891967526989</v>
+        <v>1715.206688290407</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H17" t="n">
         <v>44.49822504924753</v>
@@ -5516,22 +5518,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M17" t="n">
-        <v>1123.5801824935</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N17" t="n">
-        <v>1674.245717477938</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q17" t="n">
         <v>2224.911252462377</v>
@@ -5540,25 +5542,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="Y17" t="n">
-        <v>2165.64106180522</v>
+        <v>1715.206688290407</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L18" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M18" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N18" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O18" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P18" t="n">
         <v>1853.185855629757</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>974.6885374882565</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C19" t="n">
-        <v>855.9382161926764</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D19" t="n">
-        <v>692.6214433194471</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E19" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F19" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G19" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I19" t="n">
         <v>44.49822504924753</v>
@@ -5695,28 +5697,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S19" t="n">
-        <v>2054.776204981511</v>
+        <v>2176.356078849944</v>
       </c>
       <c r="T19" t="n">
-        <v>1811.43685720741</v>
+        <v>1933.016731075844</v>
       </c>
       <c r="U19" t="n">
-        <v>1531.252408707715</v>
+        <v>1652.832282576149</v>
       </c>
       <c r="V19" t="n">
-        <v>1249.540941315744</v>
+        <v>1652.832282576149</v>
       </c>
       <c r="W19" t="n">
-        <v>974.6885374882565</v>
+        <v>1377.979878748662</v>
       </c>
       <c r="X19" t="n">
-        <v>974.6885374882565</v>
+        <v>1377.979878748662</v>
       </c>
       <c r="Y19" t="n">
-        <v>974.6885374882565</v>
+        <v>1151.637110438404</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>1011.462633885361</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>1011.462633885361</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1011.462633885361</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1011.462633885361</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I20" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.818868109901</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M21" t="n">
-        <v>4362.434577686964</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T22" t="n">
-        <v>2235.67712750613</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U22" t="n">
-        <v>2235.67712750613</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="23">
@@ -5990,19 +5992,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
         <v>5115.135670291427</v>
@@ -6075,10 +6077,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="E25" t="n">
         <v>3516.406223561076</v>
@@ -6169,28 +6171,28 @@
         <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291427</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T25" t="n">
-        <v>5115.135670291427</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U25" t="n">
-        <v>5115.135670291427</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V25" t="n">
-        <v>4951.828802806542</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W25" t="n">
-        <v>4676.976398979054</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>3516.406223561076</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
         <v>435.0679631883225</v>
@@ -6227,19 +6229,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P26" t="n">
         <v>4541.493855905342</v>
@@ -6251,25 +6253,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>971.931772215671</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2125.516369226185</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1882.177021452085</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1601.992572952389</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V28" t="n">
-        <v>1601.992572952389</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W28" t="n">
-        <v>1601.992572952389</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
         <v>137.1995846623573</v>
@@ -6479,10 +6481,10 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6491,22 +6493,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.8002552472883</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>431.8276921262043</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>268.510919252975</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.725292651294</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.872888823807</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>1020.308992269612</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>793.966223959354</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,10 +6785,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>612.3940204581201</v>
+        <v>3205.84032174079</v>
       </c>
       <c r="C34" t="n">
-        <v>440.421457337036</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="D34" t="n">
-        <v>440.421457337036</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T34" t="n">
-        <v>2108.214973753792</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.030525254097</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V34" t="n">
-        <v>1546.319057862125</v>
+        <v>4139.765359144795</v>
       </c>
       <c r="W34" t="n">
-        <v>1271.466654034638</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="X34" t="n">
-        <v>1028.902757480444</v>
+        <v>3622.349058763114</v>
       </c>
       <c r="Y34" t="n">
-        <v>802.5599891701856</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="35">
@@ -6935,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7023,10 +7025,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3899.49916549545</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C37" t="n">
-        <v>3727.526602374366</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D37" t="n">
-        <v>3564.209829501137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>3398.00162365399</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>3226.139849428551</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3059.882879722783</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>5115.135670291427</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>4833.424202899456</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>4558.571799071969</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>4316.007902517774</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>4089.665134207516</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
         <v>5115.135670291427</v>
@@ -7199,25 +7201,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>4676.976398979054</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>4676.976398979054</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>4676.976398979054</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>4676.976398979054</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>4434.41250242486</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7418,16 +7420,16 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
         <v>4997.579335409525</v>
@@ -7488,28 +7490,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7591,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1477.48047715319</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>1477.48047715319</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>1251.137708842932</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1723.231029937541</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1723.231029937541</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1299.938409122541</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>873.9614692703988</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>448.8372874597989</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924753</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>44.49822504924753</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>595.1637600336857</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1145.829295018124</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>1696.494830002562</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.911252462377</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462377</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462377</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.911252462377</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2224.911252462377</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2224.911252462377</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2224.911252462377</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2143.079394229071</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>51.94486801115937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>51.94486801115937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>51.94486801115937</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M45" t="n">
-        <v>602.6104029955975</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N45" t="n">
-        <v>1153.275937980036</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O45" t="n">
-        <v>1703.941472964474</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P45" t="n">
-        <v>1853.185855629757</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1127.679347573484</v>
+        <v>3774.338928650966</v>
       </c>
       <c r="C46" t="n">
-        <v>955.7067844524004</v>
+        <v>3602.366365529882</v>
       </c>
       <c r="D46" t="n">
-        <v>792.3900115791711</v>
+        <v>3439.049592656653</v>
       </c>
       <c r="E46" t="n">
-        <v>626.1818057320246</v>
+        <v>3272.841386809506</v>
       </c>
       <c r="F46" t="n">
-        <v>454.3200315065851</v>
+        <v>3100.979612584067</v>
       </c>
       <c r="G46" t="n">
-        <v>288.0630618008172</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089716</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734055</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.87263914955</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S46" t="n">
-        <v>2177.87263914955</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T46" t="n">
-        <v>2177.87263914955</v>
+        <v>4824.7577092045</v>
       </c>
       <c r="U46" t="n">
-        <v>2177.87263914955</v>
+        <v>4544.573260704805</v>
       </c>
       <c r="V46" t="n">
-        <v>2061.60438497749</v>
+        <v>4544.573260704805</v>
       </c>
       <c r="W46" t="n">
-        <v>1786.751981150003</v>
+        <v>4433.411562227484</v>
       </c>
       <c r="X46" t="n">
-        <v>1544.188084595808</v>
+        <v>4190.847665673289</v>
       </c>
       <c r="Y46" t="n">
-        <v>1317.84531628555</v>
+        <v>3964.504897363031</v>
       </c>
     </row>
   </sheetData>
@@ -7982,25 +7984,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482168</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M2" t="n">
-        <v>547.9768619480848</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8061,19 +8063,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3350601123622</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279219</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204226</v>
+        <v>177.0689530252724</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8216,13 +8218,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>452.4414523720699</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
@@ -8231,7 +8233,7 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>452.5855512828693</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>172.5227428869331</v>
+        <v>180.0446044646217</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
@@ -8462,19 +8464,19 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>86.31943126580316</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>179.6167914733347</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8690,22 +8692,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M11" t="n">
-        <v>571.1852249800523</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P11" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8769,22 +8771,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3705437721211</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N12" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8848,7 +8850,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
@@ -8933,22 +8935,22 @@
         <v>594.539855548217</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>110.4928214404737</v>
       </c>
       <c r="N14" t="n">
-        <v>86.02369229001789</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N15" t="n">
-        <v>267.0107895760205</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O15" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646217</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9164,25 +9166,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M17" t="n">
-        <v>571.1852249800525</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500402</v>
+        <v>110.3411813754878</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9243,22 +9245,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279221</v>
+        <v>181.370543772121</v>
       </c>
       <c r="N18" t="n">
-        <v>179.6167914733347</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>878.1144544646206</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>571.0335849150667</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574439</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9875,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9884,13 +9886,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>632.4842746885297</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9948,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>501.4810380814832</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>218.8019602116015</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
-        <v>472.1756697257304</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1003.048909524252</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -11066,7 +11068,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11075,10 +11077,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11136,31 +11138,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>594.539855548217</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>593.6590760150259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>593.5074359500402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>571.1449214366446</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11379,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>579.3997028378163</v>
+        <v>536.0439560200246</v>
       </c>
       <c r="P45" t="n">
-        <v>172.5227428869331</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11473,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22547,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>341.6181830358603</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>396.2211441569452</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22598,10 +22600,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -22613,7 +22615,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,19 +22758,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>192.9297892701359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>12.0386224215062</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>386.7423866588404</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22847,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>348.9253100933448</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.0981677402022</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>316.1505655932366</v>
       </c>
       <c r="G8" t="n">
-        <v>320.2703576936859</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23258,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>212.5653084123213</v>
+        <v>313.1726792460231</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23315,16 +23317,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>125.8003826660195</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>199.7617834800421</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23549,19 +23551,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>150.8725705069375</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>302.8337929713679</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -23798,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.6064085940732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>52.69001940724876</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>166.9323023094481</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>193.3114443158563</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>90.77286840263324</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>165.7641609568361</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>59.37454630891077</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>116.9973198203195</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>228.0760643491792</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>63.52994056050392</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25123,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.15019490184628</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>18.44967133088781</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>22.1301998828649</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.2669748412071</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>47.18544517283262</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>320.2703576936862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>163.7887810877119</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>162.0537982966644</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474658.243544096</v>
+        <v>474658.2435440961</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474658.2435440962</v>
+        <v>474658.2435440961</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474658.2435440961</v>
+        <v>474658.2435440962</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>787373.2710315218</v>
+        <v>474658.243544096</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787373.2710315218</v>
+        <v>787373.2710315221</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787373.2710315221</v>
+        <v>787373.2710315218</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>787373.2710315218</v>
+        <v>787373.2710315221</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>787373.2710315221</v>
+        <v>787373.2710315218</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>474658.2435440962</v>
+        <v>787373.2710315221</v>
       </c>
     </row>
   </sheetData>
@@ -26329,31 +26331,31 @@
         <v>135529.7532061196</v>
       </c>
       <c r="H2" t="n">
-        <v>224812.161254979</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="I2" t="n">
         <v>224812.161254979</v>
       </c>
       <c r="J2" t="n">
-        <v>224812.1612549789</v>
+        <v>224812.161254979</v>
       </c>
       <c r="K2" t="n">
         <v>224812.161254979</v>
       </c>
       <c r="L2" t="n">
+        <v>224812.161254979</v>
+      </c>
+      <c r="M2" t="n">
+        <v>224812.161254979</v>
+      </c>
+      <c r="N2" t="n">
+        <v>224812.161254979</v>
+      </c>
+      <c r="O2" t="n">
         <v>224812.1612549789</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>224812.1612549789</v>
-      </c>
-      <c r="N2" t="n">
-        <v>224812.1612549789</v>
-      </c>
-      <c r="O2" t="n">
-        <v>224812.161254979</v>
-      </c>
-      <c r="P2" t="n">
-        <v>135529.7532061195</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>192142.8418533797</v>
       </c>
       <c r="J3" t="n">
         <v>145533.6699348165</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="C4" t="n">
         <v>17703.77972371005</v>
@@ -26433,7 +26435,7 @@
         <v>17703.77972371005</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.2870559115</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
@@ -26445,10 +26447,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="L4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
@@ -26457,7 +26459,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="P4" t="n">
-        <v>17703.77972371005</v>
+        <v>29432.2870559115</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26485,7 +26487,7 @@
         <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26509,7 +26511,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136025.0109697558</v>
+        <v>-136025.0109697559</v>
       </c>
       <c r="C6" t="n">
         <v>50379.72244498138</v>
       </c>
       <c r="D6" t="n">
-        <v>50379.72244498138</v>
+        <v>50379.72244498141</v>
       </c>
       <c r="E6" t="n">
+        <v>84007.32244498142</v>
+      </c>
+      <c r="F6" t="n">
+        <v>84007.32244498142</v>
+      </c>
+      <c r="G6" t="n">
+        <v>84007.32244498142</v>
+      </c>
+      <c r="H6" t="n">
         <v>84007.32244498139</v>
       </c>
-      <c r="F6" t="n">
-        <v>84007.32244498139</v>
-      </c>
-      <c r="G6" t="n">
-        <v>84007.32244498139</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-77322.32797687176</v>
-      </c>
       <c r="I6" t="n">
-        <v>117629.8120106378</v>
+        <v>-74513.02984274193</v>
       </c>
       <c r="J6" t="n">
-        <v>-27903.8579241787</v>
+        <v>-27903.85792417873</v>
       </c>
       <c r="K6" t="n">
         <v>117629.8120106378</v>
       </c>
       <c r="L6" t="n">
-        <v>117629.8120106377</v>
+        <v>117629.8120106378</v>
       </c>
       <c r="M6" t="n">
-        <v>117629.8120106377</v>
+        <v>117629.8120106378</v>
       </c>
       <c r="N6" t="n">
         <v>117629.8120106378</v>
@@ -26561,7 +26563,7 @@
         <v>117629.8120106378</v>
       </c>
       <c r="P6" t="n">
-        <v>84007.32244498136</v>
+        <v>117629.8120106377</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26805,7 +26807,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>722.5561044572627</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,25 +34704,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155939</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M2" t="n">
-        <v>510.5455990486529</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>162.8199733981326</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155939</v>
+        <v>155.2981118204437</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>415.0101894726381</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
@@ -34951,7 +34953,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>150.7519016821045</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
@@ -35182,19 +35184,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M11" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="N11" t="n">
         <v>533.7539620806206</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M12" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N12" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,22 +35655,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="N14" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N15" t="n">
-        <v>245.6677613624788</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O15" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M17" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="O17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M18" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="N18" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N18" t="n">
-        <v>158.2737632597931</v>
-      </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>839.8024120319977</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439022</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36604,13 +36606,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>595.2046518540836</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>181.2265984013702</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
-        <v>436.0509951211323</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>981.7058813107108</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37795,10 +37797,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>556.2278131155941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>556.2278131155941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>556.2278131155941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>556.2278131155941</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="P45" t="n">
-        <v>150.7519016821045</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38193,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>363162.543935955</v>
+        <v>359682.5728438704</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707513</v>
+        <v>14046880.39707514</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901943</v>
+        <v>4671565.284901944</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.01353965097258</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -670,10 +670,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>86.31361320310528</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -822,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>47.97616502622309</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -879,10 +879,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>34.13055333365335</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>221.0631516094237</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>51.58543740429482</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>104.7223743992572</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>350.9605145194002</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>221.0631516094237</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1381,16 +1381,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>87.12299254042274</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>221.1111565124516</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>97.081361093705</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>116.2259016354818</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1858,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>24.1295862066223</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.501394696608363</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>227.5614956766374</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>242.5938981288117</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>79.47996908723991</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>58.31517967031927</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.8970328977319</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3049,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>98.15366458399308</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4140,16 +4140,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>110.0500814925477</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1805.062888170846</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C2" t="n">
-        <v>1723.231029937541</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D2" t="n">
-        <v>1299.938409122541</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E2" t="n">
-        <v>873.9614692703988</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924753</v>
@@ -4330,28 +4330,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>572.914647509062</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4366,16 +4366,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>2137.725784580452</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>2137.725784580452</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.911252462377</v>
+        <v>1726.005785748199</v>
       </c>
       <c r="Y2" t="n">
-        <v>2224.911252462377</v>
+        <v>1320.668515703089</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>423.6702648437783</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>423.6702648437783</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>423.6702648437783</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>974.3357998282165</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N3" t="n">
-        <v>1525.001334812655</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O3" t="n">
-        <v>1525.001334812655</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514894</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1027.91077931376</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C4" t="n">
-        <v>855.9382161926764</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D4" t="n">
-        <v>692.6214433194471</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="E4" t="n">
-        <v>526.4132374723006</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="F4" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
         <v>44.49822504924753</v>
@@ -4488,52 +4488,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2006.315432227751</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1726.130983728055</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1444.419516336084</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1444.419516336084</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>1444.419516336084</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>1218.076748025826</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>816.0778436399225</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C5" t="n">
-        <v>816.0778436399225</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D5" t="n">
-        <v>816.0778436399225</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E5" t="n">
-        <v>816.0778436399225</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4567,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="V5" t="n">
-        <v>1641.263477976562</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="W5" t="n">
-        <v>1641.263477976562</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="X5" t="n">
-        <v>1641.263477976562</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="Y5" t="n">
-        <v>1235.926207931453</v>
+        <v>1780.689568770218</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
         <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1696.494830002562</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
-        <v>1696.494830002562</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989122</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782816</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D7" t="n">
-        <v>44.49822504924753</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924753</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
         <v>44.49822504924753</v>
@@ -4746,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002918</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754307</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212358</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109778</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>887.3827134031587</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="C8" t="n">
-        <v>887.3827134031587</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="D8" t="n">
-        <v>887.3827134031587</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E8" t="n">
-        <v>887.3827134031587</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
-        <v>781.6025372422929</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976562</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1283.774063102812</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>887.3827134031587</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="X8" t="n">
-        <v>887.3827134031587</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="Y8" t="n">
-        <v>887.3827134031587</v>
+        <v>895.5993467119897</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4992,22 +4992,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1408.671538471193</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C11" t="n">
-        <v>981.7708084844935</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D11" t="n">
-        <v>558.4781876694938</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E11" t="n">
-        <v>132.5012478173513</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F11" t="n">
-        <v>132.5012478173513</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I11" t="n">
         <v>44.49822504924753</v>
@@ -5047,22 +5047,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L11" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M11" t="n">
-        <v>1145.829295018124</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N11" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O11" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R11" t="n">
         <v>2224.911252462377</v>
@@ -5071,22 +5071,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W11" t="n">
-        <v>1828.519902762723</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X11" t="n">
-        <v>1828.519902762723</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="Y11" t="n">
-        <v>1828.519902762723</v>
+        <v>2003.98568150701</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K12" t="n">
-        <v>201.1892506764427</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L12" t="n">
-        <v>751.8547856608809</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.520320645319</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N12" t="n">
-        <v>1853.185855629757</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O12" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C13" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
         <v>44.49822504924753</v>
@@ -5226,25 +5226,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T13" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U13" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V13" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y13" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1393.342889338594</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C14" t="n">
-        <v>1393.342889338594</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D14" t="n">
-        <v>970.050268523594</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E14" t="n">
-        <v>970.050268523594</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F14" t="n">
         <v>746.7056659857641</v>
@@ -5278,25 +5278,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924753</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M14" t="n">
-        <v>667.4947029893171</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N14" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O14" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P14" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q14" t="n">
         <v>2224.911252462377</v>
@@ -5308,22 +5308,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462377</v>
+        <v>1905.923700604277</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462377</v>
+        <v>1548.434285730527</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462377</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="X14" t="n">
-        <v>1813.191253630124</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="Y14" t="n">
-        <v>1813.191253630124</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924753</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L15" t="n">
-        <v>44.49822504924753</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="M15" t="n">
-        <v>595.1637600336857</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N15" t="n">
-        <v>1145.829295018124</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O15" t="n">
-        <v>1696.494830002562</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
         <v>44.49822504924753</v>
@@ -5463,25 +5463,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1715.206688290407</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C17" t="n">
-        <v>1715.206688290407</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D17" t="n">
-        <v>1597.806787648507</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E17" t="n">
-        <v>1171.829847796364</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F17" t="n">
-        <v>746.7056659857641</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G17" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L17" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M17" t="n">
-        <v>1696.494830002562</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N17" t="n">
-        <v>1768.825772958194</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O17" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P17" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R17" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T17" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U17" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V17" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W17" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X17" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y17" t="n">
-        <v>1715.206688290407</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M18" t="n">
         <v>1302.520320645319</v>
       </c>
       <c r="N18" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O18" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P18" t="n">
         <v>1853.185855629757</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>961.4711417263379</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C19" t="n">
-        <v>789.4985786052539</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D19" t="n">
-        <v>626.1818057320246</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E19" t="n">
-        <v>626.1818057320246</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
         <v>44.49822504924753</v>
@@ -5697,28 +5697,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2176.356078849944</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T19" t="n">
-        <v>1933.016731075844</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U19" t="n">
-        <v>1652.832282576149</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V19" t="n">
-        <v>1652.832282576149</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W19" t="n">
-        <v>1377.979878748662</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X19" t="n">
-        <v>1377.979878748662</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y19" t="n">
-        <v>1151.637110438404</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1011.462633885361</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C20" t="n">
-        <v>1011.462633885361</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D20" t="n">
-        <v>1011.462633885361</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E20" t="n">
-        <v>1011.462633885361</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F20" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G20" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H20" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I20" t="n">
         <v>44.49822504924753</v>
@@ -5755,22 +5755,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924753</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L20" t="n">
-        <v>44.49822504924753</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M20" t="n">
-        <v>595.1637600336857</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N20" t="n">
-        <v>1123.5801824935</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O20" t="n">
-        <v>1674.245717477938</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P20" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q20" t="n">
         <v>2224.911252462377</v>
@@ -5782,22 +5782,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W20" t="n">
-        <v>1828.519902762723</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X20" t="n">
-        <v>1416.799903930471</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y20" t="n">
-        <v>1011.462633885361</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924753</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L21" t="n">
-        <v>44.49822504924753</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="M21" t="n">
-        <v>595.1637600336857</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N21" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O21" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P21" t="n">
         <v>1853.185855629757</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C22" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D22" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E22" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
         <v>44.49822504924753</v>
@@ -5934,28 +5934,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U22" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V22" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W22" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X22" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y22" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6080,16 +6080,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.617659878699</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3516.406223561076</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831969</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>3817.874342004482</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>3575.310445450287</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>3516.406223561076</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6235,13 +6235,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
         <v>4541.493855905342</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2039.376393044857</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6472,25 +6472,25 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
         <v>4789.842805209199</v>
@@ -6554,16 +6554,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.617659878699</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6703,49 +6703,49 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>357.9938188649342</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3205.84032174079</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>3033.867758619706</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878299</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>4701.661275036462</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>4421.476826536767</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>4139.765359144795</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>3864.912955317308</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>3622.349058763114</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>3396.006290452855</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6946,28 +6946,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C37" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="38">
@@ -7177,25 +7177,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7250,25 +7250,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7362,22 +7362,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q41" t="n">
         <v>4997.579335409525</v>
@@ -7447,16 +7447,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O42" t="n">
-        <v>964.4851292537592</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>326.3817789554925</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C43" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D43" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E43" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X43" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y43" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7651,19 +7651,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M44" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N44" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
         <v>4541.493855905342</v>
@@ -7675,25 +7675,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L45" t="n">
-        <v>939.1015214887346</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M45" t="n">
-        <v>939.1015214887346</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N45" t="n">
-        <v>939.1015214887346</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O45" t="n">
-        <v>1446.844867123559</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P45" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3774.338928650966</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>3602.366365529882</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>3439.049592656653</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E46" t="n">
-        <v>3272.841386809506</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>4824.7577092045</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>4544.573260704805</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>4544.573260704805</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>4433.411562227484</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>4190.847665673289</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>3964.504897363031</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>572.0660045132436</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>177.0689530252724</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>452.4414523720699</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
@@ -8233,13 +8233,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,22 +8297,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>179.6167914733348</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>180.0446044646217</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>571.0335849150666</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>179.6167914733347</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,25 +8695,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>571.0335849150666</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O11" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,28 +8771,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291358</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>203.2524428583638</v>
       </c>
       <c r="L14" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M14" t="n">
-        <v>110.4928214404737</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N14" t="n">
         <v>593.5074359500402</v>
@@ -8944,10 +8944,10 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>89.24714193129947</v>
       </c>
       <c r="O15" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P15" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>110.3411813754878</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298237</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M18" t="n">
-        <v>181.370543772121</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9403,16 +9403,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>571.0335849150667</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>593.6187724716183</v>
@@ -9421,7 +9421,7 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9476,28 +9476,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>172.0949298956461</v>
       </c>
       <c r="O21" t="n">
-        <v>181.4456529820153</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P21" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>749.810964578424</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>398.5805034488242</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,16 +9883,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>100.0581876036193</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>749.810964578424</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>280.6730777314198</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,28 +10898,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>522.0689695543915</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,7 +11068,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11077,10 +11077,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11138,10 +11138,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11153,16 +11153,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P42" t="n">
-        <v>426.1551116948253</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>522.0689695543915</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>536.0439560200246</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>341.6181830358603</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22558,10 +22558,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22606,16 +22606,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>267.6009075219077</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,19 +22710,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>118.5577190788904</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>192.9297892701359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,10 +22767,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>386.7423866588404</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>34.7082087001281</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22852,7 +22852,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22947,13 +22947,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>110.0981677402022</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23029,19 +23029,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>316.1505655932366</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>50.32338282525836</v>
       </c>
     </row>
     <row r="9">
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,13 +23232,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>194.586729039191</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>313.1726792460231</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -23320,7 +23320,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>199.7617834800421</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>158.6899992158468</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>302.8337929713679</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -23800,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>377.1543111380362</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>166.9323023094481</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>193.3114443158563</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>158.6899992158468</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>90.77286840263324</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24138,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.7641609568361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>116.9973198203195</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.52994056050392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25806,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>47.18544517283262</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>162.0537982966644</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474658.2435440961</v>
+        <v>474658.2435440962</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474658.2435440962</v>
+        <v>474658.2435440961</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474658.243544096</v>
+        <v>474658.2435440962</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>474658.243544096</v>
+        <v>474658.2435440962</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787373.2710315221</v>
+        <v>787373.2710315218</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>787373.2710315221</v>
+        <v>787373.2710315218</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>787373.2710315221</v>
+        <v>787373.2710315218</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="C2" t="n">
         <v>135529.7532061196</v>
@@ -26343,10 +26343,10 @@
         <v>224812.161254979</v>
       </c>
       <c r="L2" t="n">
-        <v>224812.161254979</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="M2" t="n">
-        <v>224812.161254979</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="N2" t="n">
         <v>224812.161254979</v>
@@ -26355,7 +26355,7 @@
         <v>224812.1612549789</v>
       </c>
       <c r="P2" t="n">
-        <v>224812.1612549789</v>
+        <v>224812.161254979</v>
       </c>
     </row>
     <row r="3">
@@ -26447,10 +26447,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="L4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136025.0109697559</v>
+        <v>-136634.0566822455</v>
       </c>
       <c r="C6" t="n">
-        <v>50379.72244498138</v>
+        <v>49770.67673249175</v>
       </c>
       <c r="D6" t="n">
-        <v>50379.72244498141</v>
+        <v>49770.67673249172</v>
       </c>
       <c r="E6" t="n">
-        <v>84007.32244498142</v>
+        <v>83398.27673249175</v>
       </c>
       <c r="F6" t="n">
-        <v>84007.32244498142</v>
+        <v>83398.27673249172</v>
       </c>
       <c r="G6" t="n">
-        <v>84007.32244498142</v>
+        <v>83398.27673249175</v>
       </c>
       <c r="H6" t="n">
-        <v>84007.32244498139</v>
+        <v>83398.27673249172</v>
       </c>
       <c r="I6" t="n">
-        <v>-74513.02984274193</v>
+        <v>-74564.06050492625</v>
       </c>
       <c r="J6" t="n">
-        <v>-27903.85792417873</v>
+        <v>-27954.88858636299</v>
       </c>
       <c r="K6" t="n">
-        <v>117629.8120106378</v>
+        <v>117578.7813484535</v>
       </c>
       <c r="L6" t="n">
-        <v>117629.8120106378</v>
+        <v>117578.7813484534</v>
       </c>
       <c r="M6" t="n">
-        <v>117629.8120106378</v>
+        <v>117578.7813484534</v>
       </c>
       <c r="N6" t="n">
-        <v>117629.8120106378</v>
+        <v>117578.7813484535</v>
       </c>
       <c r="O6" t="n">
-        <v>117629.8120106378</v>
+        <v>117578.7813484534</v>
       </c>
       <c r="P6" t="n">
-        <v>117629.8120106377</v>
+        <v>117578.7813484535</v>
       </c>
     </row>
   </sheetData>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>155.2981118204437</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>415.0101894726381</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
@@ -34953,13 +34953,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>158.2737632597932</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>158.2737632597931</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>533.7539620806206</v>
-      </c>
-      <c r="O8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>533.7539620806206</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="O11" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>162.8199733981322</v>
+      </c>
+      <c r="O12" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N12" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="L14" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M14" t="n">
-        <v>73.0615585410419</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N14" t="n">
         <v>556.2278131155941</v>
@@ -35664,10 +35664,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155941</v>
+        <v>67.9041137177578</v>
       </c>
       <c r="O15" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P15" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M17" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N17" t="n">
-        <v>73.06155854104179</v>
-      </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
+        <v>432.5378064344753</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M18" t="n">
-        <v>158.2737632597931</v>
-      </c>
-      <c r="N18" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>556.2278131155941</v>
@@ -36141,7 +36141,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>150.7519016821045</v>
+      </c>
+      <c r="O21" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N21" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O21" t="n">
-        <v>158.2737632597931</v>
-      </c>
       <c r="P21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>726.6390748562018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>376.8096622439955</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,16 +36603,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>726.6390748562018</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>499.553882840162</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,7 +37788,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37797,10 +37797,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P42" t="n">
-        <v>404.3842704899966</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>499.553882840162</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>512.8720662978023</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
